--- a/Lab1.3/Requirements Stakeholder Traceability Matrix.xlsx
+++ b/Lab1.3/Requirements Stakeholder Traceability Matrix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uithcm-my.sharepoint.com/personal/21520946_ms_uit_edu_vn/Documents/School/HK5/Kỹ thuật phân tích yêu cầu - SE357.O12.PMCL/Lab/Lab1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uithcm-my.sharepoint.com/personal/21520946_ms_uit_edu_vn/Documents/School/HK5/Kỹ thuật phân tích yêu cầu - SE357.O12.PMCL/Lab/Lab1/Submit/Lab1.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_F25DC773A252ABDACC104852395964225BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96BA85FA-C71A-4C4C-8454-C833C4BC5CF9}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="11_F25DC773A252ABDACC104852395964225BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{029BCC82-1618-4198-AC9E-C6216E409550}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="7">
   <si>
     <t>RequirementID</t>
   </si>
@@ -33,14 +33,20 @@
     <t>Rank 1 (lowest importance) – 5 (highest importance)</t>
   </si>
   <si>
-    <t>Stakeholder Source 
-(S - Staff, A - Admin)</t>
-  </si>
-  <si>
     <t>A, S</t>
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>A, C</t>
+  </si>
+  <si>
+    <t>Stakeholder Source 
+(S - Staff, C - Customer service staff, H - HR Staff, A - Admin)</t>
+  </si>
+  <si>
+    <t>A, H</t>
   </si>
 </sst>
 </file>
@@ -91,18 +97,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -396,7 +401,7 @@
     <col min="3" max="3" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -404,207 +409,361 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>3</v>
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>3</v>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>3</v>
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>3</v>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
-        <v>3</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>3</v>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
-        <v>3</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>3</v>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>5</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
-        <v>2</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>4</v>
+      <c r="B13" s="2">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
-        <v>4</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
+      <c r="B14" s="2">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
-        <v>3</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
-        <v>3</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>4</v>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
-        <v>2</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>4</v>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
-        <v>3</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>4</v>
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <v>1</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>4</v>
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
